--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value349.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value349.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.748987540844205</v>
+        <v>0.7988880276679993</v>
       </c>
       <c r="B1">
-        <v>3.981965746097647</v>
+        <v>1.87778627872467</v>
       </c>
       <c r="C1">
-        <v>1.866511299605358</v>
+        <v>5.037609100341797</v>
       </c>
       <c r="D1">
-        <v>0.85624601728392</v>
+        <v>2.605562925338745</v>
       </c>
       <c r="E1">
-        <v>0.6212558890688035</v>
+        <v>1.404710173606873</v>
       </c>
     </row>
   </sheetData>
